--- a/results/1/1_CCint_rewards.xlsx
+++ b/results/1/1_CCint_rewards.xlsx
@@ -423,41 +423,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -492,41 +492,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -561,41 +561,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-28.88</v>
-      </c>
-      <c r="D2">
-        <v>-36.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-15</v>
-      </c>
-      <c r="D3">
-        <v>-17.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-5.44</v>
-      </c>
-      <c r="D4">
-        <v>-39.18</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-8.18</v>
+      </c>
+      <c r="D2">
+        <v>-2.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-86.77</v>
+      </c>
+      <c r="D3">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-10.82</v>
+      </c>
+      <c r="D4">
+        <v>-15.68</v>
       </c>
     </row>
   </sheetData>
@@ -630,41 +630,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-7.2</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-20.69</v>
-      </c>
-      <c r="C3">
-        <v>-28</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-13</v>
-      </c>
-      <c r="C4">
-        <v>-20.48</v>
-      </c>
-      <c r="D4">
-        <v>-19.43</v>
+        <v>-10.7</v>
+      </c>
+      <c r="C2">
+        <v>12.92</v>
+      </c>
+      <c r="D2">
+        <v>-28.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-42.1</v>
+      </c>
+      <c r="C3">
+        <v>-8.18</v>
+      </c>
+      <c r="D3">
+        <v>-14.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-3.18</v>
+      </c>
+      <c r="C4">
+        <v>-28.59</v>
+      </c>
+      <c r="D4">
+        <v>-19.62</v>
       </c>
     </row>
   </sheetData>
@@ -699,41 +699,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-2.2</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-13</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-33.2</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-38.1</v>
+      </c>
+      <c r="C2">
+        <v>8.35</v>
+      </c>
+      <c r="D2">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4.42</v>
+      </c>
+      <c r="C3">
+        <v>11.02</v>
+      </c>
+      <c r="D3">
+        <v>-1.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3.38</v>
+      </c>
+      <c r="C4">
+        <v>1.93</v>
+      </c>
+      <c r="D4">
+        <v>3.76</v>
       </c>
     </row>
   </sheetData>
@@ -768,41 +768,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>3.8</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>16.84</v>
+      </c>
+      <c r="D2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-65.59999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-6.4</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -837,41 +837,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -906,41 +906,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-47.62</v>
-      </c>
-      <c r="D2">
-        <v>-14.87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-31.9</v>
-      </c>
-      <c r="D3">
-        <v>-37.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-23.35</v>
-      </c>
-      <c r="D4">
-        <v>-29.58</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>3.48</v>
+      </c>
+      <c r="D2">
+        <v>-3.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>3.77</v>
+      </c>
+      <c r="D3">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-6.73</v>
+      </c>
+      <c r="D4">
+        <v>3.93</v>
       </c>
     </row>
   </sheetData>
@@ -975,41 +975,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-50.47</v>
-      </c>
-      <c r="C2">
-        <v>-41.94</v>
-      </c>
-      <c r="D2">
-        <v>-31.19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-71.59</v>
-      </c>
-      <c r="C3">
-        <v>-57.86</v>
-      </c>
-      <c r="D3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-52.25</v>
-      </c>
-      <c r="C4">
-        <v>-23.77</v>
-      </c>
-      <c r="D4">
-        <v>11.94</v>
+        <v>10.02</v>
+      </c>
+      <c r="C2">
+        <v>7.77</v>
+      </c>
+      <c r="D2">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.01</v>
+      </c>
+      <c r="C3">
+        <v>7.54</v>
+      </c>
+      <c r="D3">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-4.99</v>
+      </c>
+      <c r="C4">
+        <v>0.06</v>
+      </c>
+      <c r="D4">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1044,41 +1044,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="C2">
-        <v>-4.6</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-65.12</v>
-      </c>
-      <c r="C3">
-        <v>-9.58</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-65</v>
-      </c>
-      <c r="C4">
-        <v>3.92</v>
-      </c>
-      <c r="D4">
-        <v>3.64</v>
+        <v>-6.94</v>
+      </c>
+      <c r="C2">
+        <v>-12.64</v>
+      </c>
+      <c r="D2">
+        <v>-7.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-54.14</v>
+      </c>
+      <c r="C3">
+        <v>-11.56</v>
+      </c>
+      <c r="D3">
+        <v>-3.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-8.82</v>
+      </c>
+      <c r="C4">
+        <v>12.03</v>
+      </c>
+      <c r="D4">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1113,41 +1113,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>3.6</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>7.79</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>1.09</v>
+      </c>
+      <c r="C2">
+        <v>-7.71</v>
+      </c>
+      <c r="D2">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3">
+        <v>-100</v>
+      </c>
+      <c r="D3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-35.4</v>
+      </c>
+      <c r="C4">
+        <v>-1.56</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1182,41 +1182,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1251,41 +1251,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1320,41 +1320,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-27.51</v>
-      </c>
-      <c r="D2">
-        <v>-18.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-21.54</v>
-      </c>
-      <c r="D3">
-        <v>-28.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>10.87</v>
+      </c>
+      <c r="D2">
+        <v>12.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>12.89</v>
+      </c>
+      <c r="D3">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1389,41 +1389,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-70.2</v>
-      </c>
-      <c r="C2">
-        <v>-34.39</v>
-      </c>
-      <c r="D2">
-        <v>-1.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-81.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-1.88</v>
-      </c>
-      <c r="D3">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>8.130000000000001</v>
+      </c>
+      <c r="C2">
+        <v>8.68</v>
+      </c>
+      <c r="D2">
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6.05</v>
+      </c>
+      <c r="D3">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1458,41 +1458,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-20.98</v>
-      </c>
-      <c r="D2">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-27.14</v>
-      </c>
-      <c r="C3">
-        <v>-16.17</v>
-      </c>
-      <c r="D3">
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>2.72</v>
+      </c>
+      <c r="C2">
+        <v>-21.93</v>
+      </c>
+      <c r="D2">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>13.73</v>
+      </c>
+      <c r="C3">
+        <v>3.9</v>
+      </c>
+      <c r="D3">
+        <v>-40.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1527,41 +1527,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-20.92</v>
-      </c>
-      <c r="C2">
-        <v>7.44</v>
-      </c>
-      <c r="D2">
-        <v>14.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-2.54</v>
-      </c>
-      <c r="D3">
-        <v>18.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>0.74</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-116.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10.81</v>
+      </c>
+      <c r="C3">
+        <v>7.54</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1596,41 +1596,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1665,41 +1665,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1734,41 +1734,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1803,41 +1803,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-166.06</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-166.06</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -1872,41 +1872,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-28.88</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-30.8</v>
+      </c>
+      <c r="D2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>10.54</v>
+      </c>
+      <c r="D4">
+        <v>-6.88</v>
       </c>
     </row>
   </sheetData>
@@ -1941,41 +1941,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-22.2</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>2.6</v>
+      </c>
+      <c r="C2">
+        <v>-9.1</v>
+      </c>
+      <c r="D2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.08</v>
+      </c>
+      <c r="C3">
+        <v>-2.04</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-67.5</v>
+      </c>
+      <c r="C4">
+        <v>-1.35</v>
+      </c>
+      <c r="D4">
+        <v>7.74</v>
       </c>
     </row>
   </sheetData>
@@ -2010,41 +2010,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-2.2</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-22.29</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-8.08</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>-10.2</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
@@ -2079,41 +2079,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C2">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>-86.90000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="C4">
-        <v>-86.90000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-86.90000000000001</v>
+        <v>-166.06</v>
+      </c>
+      <c r="C2">
+        <v>-9.6</v>
+      </c>
+      <c r="D2">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-166.06</v>
+      </c>
+      <c r="C3">
+        <v>-166.06</v>
+      </c>
+      <c r="D3">
+        <v>-166.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-166.06</v>
+      </c>
+      <c r="C4">
+        <v>5.52</v>
+      </c>
+      <c r="D4">
+        <v>-166.06</v>
       </c>
     </row>
   </sheetData>
